--- a/Blatt 2/Plots/tabelle.xlsx
+++ b/Blatt 2/Plots/tabelle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Universität\2. Masterstudium\9. Semester\NumSim\Übungsblätter\GitHub\NumSim\Blatt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Universität\2. Masterstudium\9. Semester\NumSim\Übungsblätter\GitHub\NumSim\Blatt 2\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D30E337-173C-4A3C-83DD-95DF2AEE2D9F}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +438,7 @@
         <v>27.92</v>
       </c>
       <c r="F2">
-        <v>257.58</v>
+        <v>227.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -458,7 +458,7 @@
         <v>14.06</v>
       </c>
       <c r="F3">
-        <v>150.49</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -478,120 +478,140 @@
         <v>7.65</v>
       </c>
       <c r="F4">
-        <v>97.1</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.26E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>183.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.89</v>
+        <v>1.08</v>
       </c>
       <c r="C6">
-        <v>0.22</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>3.1E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="E6">
-        <v>2.96</v>
+        <v>3.9</v>
       </c>
       <c r="F6">
-        <v>200.3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="C7">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="D7">
-        <v>7.0000000000000001E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E7">
-        <v>1.8</v>
+        <v>2.96</v>
       </c>
       <c r="F7">
-        <v>220.6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="C8">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="D8">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="F8">
-        <v>275.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0.28000000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="C9">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
-        <v>0.97</v>
+        <v>1.3</v>
+      </c>
+      <c r="F9">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.54</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>64</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.22</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.05</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.73</v>
       </c>
     </row>
